--- a/MDT/DienstenCatalogus/Producten-VoorregistratieAanspraakelijkhedenPersonen.xlsx
+++ b/MDT/DienstenCatalogus/Producten-VoorregistratieAanspraakelijkhedenPersonen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="153">
   <si>
     <t>PROD_CODE</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>procID</t>
+  </si>
+  <si>
+    <t>bron</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>VAP</t>
   </si>
 </sst>
 </file>
@@ -1326,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1349,10 +1358,11 @@
     <col min="10" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="8.88671875" style="5"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>146</v>
       </c>
@@ -1406,8 +1416,11 @@
       <c r="J2" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
@@ -1426,8 +1439,11 @@
       <c r="J3" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1466,8 +1482,11 @@
       <c r="M4" s="2">
         <v>3637757424</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1509,8 +1528,11 @@
       <c r="M5" s="2">
         <v>3637757432</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,8 +1571,11 @@
       <c r="M6" s="2">
         <v>3637757441</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1589,8 +1614,11 @@
       <c r="M7" s="2">
         <v>3637756753</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1629,8 +1657,11 @@
       <c r="M8" s="2">
         <v>3637757560</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1669,8 +1700,11 @@
       <c r="M9" s="2">
         <v>3637757550</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1709,8 +1743,11 @@
       <c r="M10" s="2">
         <v>3637757500</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1749,8 +1786,11 @@
       <c r="M11" s="2">
         <v>3637757334</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1789,8 +1829,11 @@
       <c r="M12" s="2">
         <v>3637757539</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1829,8 +1872,11 @@
       <c r="M13" s="2">
         <v>3637757467</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1869,8 +1915,11 @@
       <c r="M14" s="2">
         <v>3637756776</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1909,8 +1958,11 @@
       <c r="M15" s="2">
         <v>3637756743</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,8 +2001,11 @@
       <c r="M16" s="2">
         <v>3637757318</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1989,8 +2044,11 @@
       <c r="M17" s="2">
         <v>3637757253</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2029,8 +2087,11 @@
       <c r="M18" s="2">
         <v>3637757261</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2066,8 +2127,11 @@
       <c r="M19" s="2">
         <v>3617092146</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -2106,8 +2170,11 @@
       <c r="M20" s="2">
         <v>3637757509</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -2146,8 +2213,11 @@
       <c r="M21" s="2">
         <v>3637757451</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="M22" s="2">
         <v>3637756705</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2226,8 +2299,11 @@
       <c r="M23" s="2">
         <v>3637757521</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2266,8 +2342,11 @@
       <c r="M24" s="2">
         <v>3652595878</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -2306,8 +2385,11 @@
       <c r="M25" s="2">
         <v>3652595928</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -2346,8 +2428,11 @@
       <c r="M26" s="2">
         <v>3637756793</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2383,8 +2468,11 @@
       <c r="M27" s="2">
         <v>3641118441</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -2423,8 +2511,11 @@
       <c r="M28" s="2">
         <v>3637756660</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2463,8 +2554,11 @@
       <c r="M29" s="2">
         <v>3637757349</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,8 +2591,11 @@
       <c r="M30" s="2">
         <v>3596967917</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -2531,8 +2628,11 @@
       <c r="M31" s="2">
         <v>3596965563</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -2568,8 +2668,11 @@
       <c r="M32" s="2">
         <v>3596964645</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -2608,8 +2711,11 @@
       <c r="M33" s="2">
         <v>3637757019</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2648,8 +2754,11 @@
       <c r="M34" s="2">
         <v>3637757195</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2688,8 +2797,11 @@
       <c r="M35" s="2">
         <v>3637757206</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -2728,8 +2840,11 @@
       <c r="M36" s="2">
         <v>3637757377</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -2765,8 +2880,11 @@
       <c r="M37" s="2">
         <v>3617528836</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2805,8 +2923,11 @@
       <c r="M38" s="2">
         <v>3637756626</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -2845,8 +2966,11 @@
       <c r="M39" s="2">
         <v>3637756639</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2885,8 +3009,11 @@
       <c r="M40" s="2">
         <v>3637756671</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -2925,8 +3052,11 @@
       <c r="M41" s="2">
         <v>3637756721</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2965,8 +3095,11 @@
       <c r="M42" s="2">
         <v>3637756960</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -3005,8 +3138,11 @@
       <c r="M43" s="2">
         <v>3637756973</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
@@ -3045,8 +3181,11 @@
       <c r="M44" s="2">
         <v>3652595913</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>96</v>
       </c>
@@ -3085,8 +3224,11 @@
       <c r="M45" s="2">
         <v>3637756733</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -3125,8 +3267,11 @@
       <c r="M46" s="2">
         <v>3640175086</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
@@ -3165,8 +3310,11 @@
       <c r="M47" s="2">
         <v>3637756588</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
@@ -3205,8 +3353,11 @@
       <c r="M48" s="2">
         <v>3637756894</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
@@ -3245,8 +3396,11 @@
       <c r="M49" s="2">
         <v>3637756611</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
@@ -3285,8 +3439,11 @@
       <c r="M50" s="2">
         <v>3637756904</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
@@ -3325,8 +3482,11 @@
       <c r="M51" s="2">
         <v>3637757410</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
@@ -3365,8 +3525,11 @@
       <c r="M52" s="2">
         <v>3637756864</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
@@ -3405,8 +3568,11 @@
       <c r="M53" s="2">
         <v>3637756926</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -3445,8 +3611,11 @@
       <c r="M54" s="2">
         <v>3637756916</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -3485,8 +3654,11 @@
       <c r="M55" s="2">
         <v>3637757707</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -3525,8 +3697,11 @@
       <c r="M56" s="2">
         <v>3637756878</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -3565,8 +3740,11 @@
       <c r="M57" s="2">
         <v>3637756813</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -3605,8 +3783,11 @@
       <c r="M58" s="2">
         <v>3637757303</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
@@ -3645,8 +3826,11 @@
       <c r="M59" s="2">
         <v>3637757488</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>126</v>
       </c>
@@ -3682,8 +3866,11 @@
       <c r="M60" s="2">
         <v>3642314332</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
@@ -3722,8 +3909,11 @@
       <c r="M61" s="2">
         <v>3637756936</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>130</v>
       </c>
@@ -3756,8 +3946,11 @@
       <c r="M62" s="2">
         <v>3596966081</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
@@ -3796,8 +3989,11 @@
       <c r="M63" s="2">
         <v>3637757239</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -3836,8 +4032,11 @@
       <c r="M64" s="2">
         <v>3637756848</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
@@ -3876,8 +4075,11 @@
       <c r="M65" s="2">
         <v>3637757232</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -3915,6 +4117,9 @@
       </c>
       <c r="M66" s="2">
         <v>3637756691</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/MDT/DienstenCatalogus/Producten-VoorregistratieAanspraakelijkhedenPersonen.xlsx
+++ b/MDT/DienstenCatalogus/Producten-VoorregistratieAanspraakelijkhedenPersonen.xlsx
@@ -468,12 +468,6 @@
     <t>rdwProduct</t>
   </si>
   <si>
-    <t>ProcID</t>
-  </si>
-  <si>
-    <t>procID</t>
-  </si>
-  <si>
     <t>bron</t>
   </si>
   <si>
@@ -481,6 +475,12 @@
   </si>
   <si>
     <t>VAP</t>
+  </si>
+  <si>
+    <t>procIdent</t>
+  </si>
+  <si>
+    <t>ProcIdent</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1417,7 +1417,7 @@
         <v>142</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1440,7 +1440,7 @@
         <v>143</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1483,7 +1483,7 @@
         <v>3637757424</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1529,7 +1529,7 @@
         <v>3637757432</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>3637757441</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1615,7 +1615,7 @@
         <v>3637756753</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>3637757560</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1701,7 +1701,7 @@
         <v>3637757550</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1744,7 +1744,7 @@
         <v>3637757500</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1787,7 +1787,7 @@
         <v>3637757334</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>3637757539</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1873,7 +1873,7 @@
         <v>3637757467</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1916,7 +1916,7 @@
         <v>3637756776</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1959,7 +1959,7 @@
         <v>3637756743</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2002,7 +2002,7 @@
         <v>3637757318</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -2045,7 +2045,7 @@
         <v>3637757253</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -2088,7 +2088,7 @@
         <v>3637757261</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2128,7 +2128,7 @@
         <v>3617092146</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
         <v>3637757509</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -2214,7 +2214,7 @@
         <v>3637757451</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>3637756705</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -2300,7 +2300,7 @@
         <v>3637757521</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -2343,7 +2343,7 @@
         <v>3652595878</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2386,7 +2386,7 @@
         <v>3652595928</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2429,7 +2429,7 @@
         <v>3637756793</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>3641118441</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
         <v>3637756660</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2555,7 +2555,7 @@
         <v>3637757349</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2592,7 +2592,7 @@
         <v>3596967917</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2629,7 +2629,7 @@
         <v>3596965563</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2669,7 +2669,7 @@
         <v>3596964645</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2712,7 +2712,7 @@
         <v>3637757019</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2755,7 +2755,7 @@
         <v>3637757195</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2798,7 +2798,7 @@
         <v>3637757206</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2841,7 +2841,7 @@
         <v>3637757377</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2881,7 +2881,7 @@
         <v>3617528836</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2924,7 +2924,7 @@
         <v>3637756626</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2967,7 +2967,7 @@
         <v>3637756639</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3010,7 +3010,7 @@
         <v>3637756671</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -3053,7 +3053,7 @@
         <v>3637756721</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3096,7 +3096,7 @@
         <v>3637756960</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -3139,7 +3139,7 @@
         <v>3637756973</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -3182,7 +3182,7 @@
         <v>3652595913</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3225,7 +3225,7 @@
         <v>3637756733</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3268,7 +3268,7 @@
         <v>3640175086</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3311,7 +3311,7 @@
         <v>3637756588</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -3354,7 +3354,7 @@
         <v>3637756894</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
         <v>3637756611</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
         <v>3637756904</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3483,7 +3483,7 @@
         <v>3637757410</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3526,7 +3526,7 @@
         <v>3637756864</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3569,7 +3569,7 @@
         <v>3637756926</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -3612,7 +3612,7 @@
         <v>3637756916</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3655,7 +3655,7 @@
         <v>3637757707</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3698,7 +3698,7 @@
         <v>3637756878</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -3741,7 +3741,7 @@
         <v>3637756813</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
         <v>3637757303</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3827,7 +3827,7 @@
         <v>3637757488</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3867,7 +3867,7 @@
         <v>3642314332</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3910,7 +3910,7 @@
         <v>3637756936</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3947,7 +3947,7 @@
         <v>3596966081</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>3637757239</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -4033,7 +4033,7 @@
         <v>3637756848</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -4076,7 +4076,7 @@
         <v>3637757232</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -4119,7 +4119,7 @@
         <v>3637756691</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
